--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1919.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1919.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.665286097265722</v>
+        <v>1.180602550506592</v>
       </c>
       <c r="B1">
-        <v>2.98292237918729</v>
+        <v>1.35085117816925</v>
       </c>
       <c r="C1">
-        <v>1.981372557344719</v>
+        <v>1.128082513809204</v>
       </c>
       <c r="D1">
-        <v>1.729124644631658</v>
+        <v>4.648920059204102</v>
       </c>
       <c r="E1">
-        <v>1.679934686256298</v>
+        <v>1.525807619094849</v>
       </c>
     </row>
   </sheetData>
